--- a/exceltocsv/public/reports/employee_dtr/Muncal,Ardo.xlsx
+++ b/exceltocsv/public/reports/employee_dtr/Muncal,Ardo.xlsx
@@ -80,7 +80,7 @@
     <t>18:30:00</t>
   </si>
   <si>
-    <t>" ~OB Others|Roll-Out Pentstar Sports, Inc. |"</t>
+    <t>" ~OB Others|Roll-Out Pentstar Sports, Inc. | R "</t>
   </si>
   <si>
     <t>05-10-2015</t>
@@ -95,7 +95,7 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>" ~OT Roll-Out Pentstar Sports, Inc. Robinsons Place Ermita ~OB Others|Roll-Out Pentstar Sports, Inc. |"</t>
+    <t>" ~OT ~ = Roll-Out Pentstar Sports, Inc. Robinsons Place Ermita ~OB Others|Roll-Out Pentstar Sports, Inc. | R "</t>
   </si>
   <si>
     <t>05-12-2015</t>
@@ -110,7 +110,7 @@
     <t>09:33:00</t>
   </si>
   <si>
-    <t>" ~OT Roll-Out Pilot Store SM MegaMall ~OB Others|Roll-Out Pentstar Sports, Inc. |"</t>
+    <t>" ~OT ~ = Roll-Out Pilot Store SM MegaMall ~OB Others|Roll-Out Pentstar Sports, Inc. | R "</t>
   </si>
   <si>
     <t>05-13-2015</t>
@@ -119,7 +119,7 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>" ~OT Roll-Out Pentstar Sports, Inc.  Newport, Paranque City ~OB Others|Roll-Out Pentstar Sports, Inc. |"</t>
+    <t>" ~OT ~ = Roll-Out Pentstar Sports, Inc.  Newport, Paranque City ~OB Others|Roll-Out Pentstar Sports, Inc. | R "</t>
   </si>
   <si>
     <t>05-14-2015</t>
@@ -146,7 +146,7 @@
     <t>16:11:53</t>
   </si>
   <si>
-    <t>" ~OT Mall Integration, Pentstar Sports Inc. SM MegaMall"</t>
+    <t>" ~OT ~ = Mall Integration, Pentstar Sports Inc. SM MegaMall"</t>
   </si>
   <si>
     <t>05-16-2015</t>
@@ -182,7 +182,7 @@
     <t>15:32:00</t>
   </si>
   <si>
-    <t>" ~OT GO-Live The Breakfast Club Pioneer Center, Pasig City"</t>
+    <t>" ~OT ~ = GO-Live The Breakfast Club Pioneer Center, Pasig City"</t>
   </si>
   <si>
     <t>05-21-2015</t>
@@ -800,7 +800,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="n">
-        <v>4.0</v>
+        <v>4.5</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -838,7 +838,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="n">
-        <v>6.0</v>
+        <v>6.5</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -916,7 +916,7 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="n">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="n">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
